--- a/data/Relación de provincias por comunidades autónomas y sus códigos.xlsx
+++ b/data/Relación de provincias por comunidades autónomas y sus códigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd674cd528b8fcfe/GMBD/PROJECT III REAL WORLD DATATHON (MBD-EN-BL2020J-1_32R211_387066)/gmbd_datathon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{A94A60FE-291C-4EA2-A801-2459AE9B0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10ADBDEA-5892-496B-AC9A-84DB1DEE1D1A}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{A94A60FE-291C-4EA2-A801-2459AE9B0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F11787-0E95-455A-870C-08174C3159C5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23620" xr2:uid="{B0C83BCF-32E6-4B2E-8607-3876E09DC576}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="305">
   <si>
     <t>Comunidad Autónoma</t>
   </si>
@@ -735,9 +735,6 @@
     <t>From weather information</t>
   </si>
   <si>
-    <t>aemet</t>
-  </si>
-  <si>
     <t>MADRID</t>
   </si>
   <si>
@@ -922,13 +919,43 @@
   </si>
   <si>
     <t>40b</t>
+  </si>
+  <si>
+    <t>Baleares</t>
+  </si>
+  <si>
+    <t>Castilla y Leon</t>
+  </si>
+  <si>
+    <t>Totales</t>
+  </si>
+  <si>
+    <t>Castilla La Mancha</t>
+  </si>
+  <si>
+    <t>C. Valenciana</t>
+  </si>
+  <si>
+    <t>Fuerzas Armadas</t>
+  </si>
+  <si>
+    <t>Sanidad Exterior</t>
+  </si>
+  <si>
+    <t>C. Valenciana*</t>
+  </si>
+  <si>
+    <t>Provincia aemet</t>
+  </si>
+  <si>
+    <t>Comunidad Autónoma mscbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,8 +992,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +1022,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -998,22 +1037,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1330,44 +1372,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062B352E-817A-4947-B62C-502DAD476A13}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" style="1"/>
     <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>233</v>
+      <c r="H1" t="s">
+        <v>303</v>
       </c>
       <c r="J1" t="s">
         <v>120</v>
@@ -1384,8 +1429,11 @@
       <c r="T1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1396,17 +1444,20 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E13" si="0">VLOOKUP(F2,K:M,3,0)</f>
+      <c r="F2" t="str">
+        <f>VLOOKUP(G2,K:M,3,0)</f>
         <v>AL</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>242</v>
+      <c r="H2" t="s">
+        <v>241</v>
       </c>
       <c r="J2" t="s">
         <v>123</v>
@@ -1418,14 +1469,17 @@
         <v>125</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M33" si="1">MID(J2,4,99999)</f>
+        <f t="shared" ref="M2:M33" si="0">MID(J2,4,99999)</f>
         <v>C</v>
       </c>
       <c r="T2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1436,1115 +1490,1265 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
+        <f>VLOOKUP(G3,K:M,3,0)</f>
+        <v>CA</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>VI</v>
+      </c>
+      <c r="T3" t="s">
+        <v>273</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(G4,K:M,3,0)</f>
+        <v>CO</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T4" t="s">
+        <v>270</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(G5,K:M,3,0)</f>
+        <v>GR</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(G5,T:T,1,0)</f>
+        <v>GRANADA</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AB</v>
+      </c>
+      <c r="T5" t="s">
+        <v>241</v>
+      </c>
+      <c r="V5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(G6,K:M,3,0)</f>
+        <v>H</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(G6,T:T,1,0)</f>
+        <v>HUELVA</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="T6" t="s">
+        <v>275</v>
+      </c>
+      <c r="V6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(G7,K:M,3,0)</f>
+        <v>J</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T7" t="s">
+        <v>234</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(G8,K:M,3,0)</f>
+        <v>MA</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AL</v>
+      </c>
+      <c r="T8" t="s">
+        <v>271</v>
+      </c>
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(G9,K:M,3,0)</f>
+        <v>SE</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(G9,T:T,1,0)</f>
+        <v>SEVILLA</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="T9" t="s">
+        <v>252</v>
+      </c>
+      <c r="V9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(G10,K:M,3,0)</f>
+        <v>HU</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(G10,T:T,1,0)</f>
+        <v>HUESCA</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AV</v>
+      </c>
+      <c r="T10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(G11,K:M,3,0)</f>
+        <v>TE</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(G11,T:T,1,0)</f>
+        <v>TERUEL</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BA</v>
+      </c>
+      <c r="T11" t="s">
+        <v>265</v>
+      </c>
+      <c r="V11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(G12,K:M,3,0)</f>
+        <v>Z</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(G12,T:T,1,0)</f>
+        <v>ZARAGOZA</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="T12" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(G13,K:M,3,0)</f>
+        <v>O</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(G13,T:T,1,0)</f>
+        <v>ASTURIAS</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BI</v>
+      </c>
+      <c r="T13" t="s">
+        <v>247</v>
+      </c>
+      <c r="V13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BU</v>
+      </c>
+      <c r="T14" t="s">
+        <v>244</v>
+      </c>
+      <c r="V14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CC</v>
+      </c>
+      <c r="T15" t="s">
+        <v>242</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(G16,K:M,3,0)</f>
+        <v>TF</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CA</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>VI</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="T16" t="s">
+        <v>266</v>
+      </c>
+      <c r="V16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(G17,K:M,3,0)</f>
+        <v>S</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP(G17,T:T,1,0)</f>
+        <v>CANTABRIA</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="T17" t="s">
+        <v>280</v>
+      </c>
+      <c r="V17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(G18,K:M,3,0)</f>
+        <v>AV</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>271</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CS</v>
+      </c>
+      <c r="T18" t="s">
+        <v>254</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(G19,K:M,3,0)</f>
+        <v>BU</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(G19,T:T,1,0)</f>
+        <v>BURGOS</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T19" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="V19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(G20,K:M,3,0)</f>
+        <v>LE</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CR</v>
+      </c>
+      <c r="T20" t="s">
+        <v>268</v>
+      </c>
+      <c r="V20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(G21,K:M,3,0)</f>
+        <v>P</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="str">
+        <f>VLOOKUP(G21,T:T,1,0)</f>
+        <v>PALENCIA</v>
+      </c>
+      <c r="J21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="M21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CO</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="T21" t="s">
+        <v>250</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(G22,K:M,3,0)</f>
+        <v>SA</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="str">
+        <f>VLOOKUP(G22,T:T,1,0)</f>
+        <v>SALAMANCA</v>
+      </c>
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CU</v>
+      </c>
+      <c r="T22" t="s">
+        <v>264</v>
+      </c>
+      <c r="V22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(G23,K:M,3,0)</f>
+        <v>SG</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="str">
+        <f>VLOOKUP(G23,T:T,1,0)</f>
+        <v>SEGOVIA</v>
+      </c>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SS</v>
+      </c>
+      <c r="T23" t="s">
+        <v>251</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(G24,K:M,3,0)</f>
+        <v>SO</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(G24,T:T,1,0)</f>
+        <v>SORIA</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GI</v>
+      </c>
+      <c r="T24" t="s">
+        <v>257</v>
+      </c>
+      <c r="V24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(G25,K:M,3,0)</f>
+        <v>VA</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="str">
+        <f>VLOOKUP(G25,T:T,1,0)</f>
+        <v>VALLADOLID</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="M25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>GR</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="str">
-        <f>VLOOKUP(F5,T:T,1,0)</f>
-        <v>GRANADA</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="T25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(G26,K:M,3,0)</f>
+        <v>ZA</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="str">
+        <f>VLOOKUP(G26,T:T,1,0)</f>
+        <v>ZAMORA</v>
+      </c>
+      <c r="J26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GU</v>
+      </c>
+      <c r="T26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="str">
+        <f>VLOOKUP(G27,K:M,3,0)</f>
+        <v>AB</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AB</v>
-      </c>
-      <c r="T5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H27" t="str">
+        <f>VLOOKUP(G27,T:T,1,0)</f>
+        <v>ALBACETE</v>
+      </c>
+      <c r="J27" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="M27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="str">
-        <f>VLOOKUP(F6,T:T,1,0)</f>
-        <v>HUELVA</v>
-      </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
-      </c>
-      <c r="T6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="T27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(G28,K:M,3,0)</f>
+        <v>CR</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="str">
+        <f>VLOOKUP(G28,T:T,1,0)</f>
+        <v>CIUDAD REAL</v>
+      </c>
+      <c r="J28" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HU</v>
+      </c>
+      <c r="T28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(G29,K:M,3,0)</f>
+        <v>CU</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="str">
+        <f>VLOOKUP(G29,T:T,1,0)</f>
+        <v>CUENCA</v>
+      </c>
+      <c r="J29" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PM</v>
+      </c>
+      <c r="T29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(G30,K:M,3,0)</f>
+        <v>GU</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="str">
+        <f>VLOOKUP(G30,T:T,1,0)</f>
+        <v>GUADALAJARA</v>
+      </c>
+      <c r="J30" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="str">
+      <c r="M30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>J</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>MA</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AL</v>
-      </c>
-      <c r="T8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>SE</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="str">
-        <f>VLOOKUP(F9,T:T,1,0)</f>
-        <v>SEVILLA</v>
-      </c>
-      <c r="J9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="T9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>HU</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(F10,T:T,1,0)</f>
-        <v>HUESCA</v>
-      </c>
-      <c r="J10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>AV</v>
-      </c>
-      <c r="T10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>TE</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(F11,T:T,1,0)</f>
-        <v>TERUEL</v>
-      </c>
-      <c r="J11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BA</v>
-      </c>
-      <c r="T11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>Z</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(F12,T:T,1,0)</f>
-        <v>ZARAGOZA</v>
-      </c>
-      <c r="J12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="T12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="str">
-        <f>VLOOKUP(F13,T:T,1,0)</f>
-        <v>ASTURIAS</v>
-      </c>
-      <c r="J13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BI</v>
-      </c>
-      <c r="T13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BU</v>
-      </c>
-      <c r="T14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CC</v>
-      </c>
-      <c r="T15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" ref="E16:E31" si="2">VLOOKUP(F16,K:M,3,0)</f>
-        <v>TF</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="T30" t="s">
         <v>238</v>
       </c>
-      <c r="J16" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CA</v>
-      </c>
-      <c r="T16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v>S</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(F17,T:T,1,0)</f>
-        <v>CANTABRIA</v>
-      </c>
-      <c r="J17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
-      </c>
-      <c r="T17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v>AV</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>272</v>
-      </c>
-      <c r="J18" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CS</v>
-      </c>
-      <c r="T18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v>BU</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(F19,T:T,1,0)</f>
-        <v>BURGOS</v>
-      </c>
-      <c r="K19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="2"/>
-        <v>LE</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>264</v>
-      </c>
-      <c r="J20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CR</v>
-      </c>
-      <c r="T20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" ref="G21:G35" si="3">VLOOKUP(F21,T:T,1,0)</f>
-        <v>PALENCIA</v>
-      </c>
-      <c r="J21" t="s">
-        <v>158</v>
-      </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CO</v>
-      </c>
-      <c r="T21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>SA</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="3"/>
-        <v>SALAMANCA</v>
-      </c>
-      <c r="J22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CU</v>
-      </c>
-      <c r="T22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v>SG</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="3"/>
-        <v>SEGOVIA</v>
-      </c>
-      <c r="J23" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>SS</v>
-      </c>
-      <c r="T23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>SO</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="3"/>
-        <v>SORIA</v>
-      </c>
-      <c r="J24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" t="s">
-        <v>163</v>
-      </c>
-      <c r="L24" t="s">
-        <v>146</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>GI</v>
-      </c>
-      <c r="T24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>VA</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="3"/>
-        <v>VALLADOLID</v>
-      </c>
-      <c r="J25" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>GR</v>
-      </c>
-      <c r="T25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>ZA</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="3"/>
-        <v>ZAMORA</v>
-      </c>
-      <c r="J26" t="s">
-        <v>165</v>
-      </c>
-      <c r="K26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>GU</v>
-      </c>
-      <c r="T26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>AB</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="3"/>
-        <v>ALBACETE</v>
-      </c>
-      <c r="J27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K27" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
-      </c>
-      <c r="T27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>CR</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="3"/>
-        <v>CIUDAD REAL</v>
-      </c>
-      <c r="J28" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" t="s">
-        <v>168</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>HU</v>
-      </c>
-      <c r="T28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>CU</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="3"/>
-        <v>CUENCA</v>
-      </c>
-      <c r="J29" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PM</v>
-      </c>
-      <c r="T29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v>GU</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="3"/>
-        <v>GUADALAJARA</v>
-      </c>
-      <c r="J30" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>J</v>
-      </c>
-      <c r="T30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2555,17 +2759,20 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
         <v>101</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="2"/>
+      <c r="F31" t="str">
+        <f>VLOOKUP(G31,K:M,3,0)</f>
         <v>TO</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>37</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="3"/>
+      <c r="H31" t="str">
+        <f>VLOOKUP(G31,T:T,1,0)</f>
         <v>TOLEDO</v>
       </c>
       <c r="J31" t="s">
@@ -2578,14 +2785,14 @@
         <v>175</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>LO</v>
       </c>
       <c r="T31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2596,16 +2803,19 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>214</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>39</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="3"/>
+      <c r="H32" t="str">
+        <f>VLOOKUP(G32,T:T,1,0)</f>
         <v>BARCELONA</v>
       </c>
       <c r="J32" t="s">
@@ -2618,11 +2828,11 @@
         <v>178</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>GC</v>
       </c>
       <c r="T32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
@@ -2636,16 +2846,19 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
         <v>102</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>215</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>40</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="3"/>
+      <c r="H33" t="str">
+        <f>VLOOKUP(G33,T:T,1,0)</f>
         <v>GIRONA</v>
       </c>
       <c r="J33" t="s">
@@ -2658,11 +2871,11 @@
         <v>141</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>LE</v>
       </c>
       <c r="T33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
@@ -2676,16 +2889,19 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>216</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>41</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="3"/>
+      <c r="H34" t="str">
+        <f>VLOOKUP(G34,T:T,1,0)</f>
         <v>LLEIDA</v>
       </c>
       <c r="J34" t="s">
@@ -2698,11 +2914,11 @@
         <v>146</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f t="shared" ref="M34:M56" si="4">MID(J34,4,99999)</f>
+        <f t="shared" ref="M34:M56" si="1">MID(J34,4,99999)</f>
         <v>L</v>
       </c>
       <c r="T34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
@@ -2716,16 +2932,19 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
         <v>104</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>217</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>42</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="3"/>
+      <c r="H35" t="str">
+        <f>VLOOKUP(G35,T:T,1,0)</f>
         <v>TARRAGONA</v>
       </c>
       <c r="J35" t="s">
@@ -2738,11 +2957,11 @@
         <v>125</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>LU</v>
       </c>
       <c r="T35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
@@ -2756,16 +2975,19 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" t="s">
         <v>74</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>218</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
-        <v>271</v>
+      <c r="H36" t="s">
+        <v>270</v>
       </c>
       <c r="J36" t="s">
         <v>184</v>
@@ -2777,11 +2999,11 @@
         <v>185</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>M</v>
       </c>
       <c r="T36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
@@ -2795,16 +3017,19 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>219</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>45</v>
       </c>
-      <c r="G37" t="s">
-        <v>267</v>
+      <c r="H37" t="s">
+        <v>266</v>
       </c>
       <c r="J37" t="s">
         <v>186</v>
@@ -2816,11 +3041,11 @@
         <v>137</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>MA</v>
       </c>
       <c r="T37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
@@ -2834,16 +3059,19 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>220</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>46</v>
       </c>
-      <c r="G38" t="s">
-        <v>244</v>
+      <c r="H38" t="s">
+        <v>243</v>
       </c>
       <c r="J38" t="s">
         <v>187</v>
@@ -2855,11 +3083,11 @@
         <v>188</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>MU</v>
       </c>
       <c r="T38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
@@ -2873,17 +3101,20 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
         <v>75</v>
       </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(F39,K:M,3,0)</f>
+      <c r="F39" t="str">
+        <f>VLOOKUP(G39,K:M,3,0)</f>
         <v>BA</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>48</v>
       </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(F39,T:T,1,0)</f>
+      <c r="H39" t="str">
+        <f>VLOOKUP(G39,T:T,1,0)</f>
         <v>BADAJOZ</v>
       </c>
       <c r="J39" t="s">
@@ -2896,11 +3127,11 @@
         <v>191</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="T39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
@@ -2914,27 +3145,30 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
         <v>107</v>
       </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(F40,K:M,3,0)</f>
+      <c r="F40" t="str">
+        <f>VLOOKUP(G40,K:M,3,0)</f>
         <v>CC</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>49</v>
       </c>
-      <c r="G40" t="s">
-        <v>248</v>
+      <c r="H40" t="s">
+        <v>247</v>
       </c>
       <c r="K40" t="s">
         <v>190</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
@@ -2948,16 +3182,19 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
         <v>108</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>221</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>51</v>
       </c>
-      <c r="G41" t="s">
-        <v>240</v>
+      <c r="H41" t="s">
+        <v>239</v>
       </c>
       <c r="J41" t="s">
         <v>192</v>
@@ -2969,11 +3206,11 @@
         <v>125</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>OR</v>
       </c>
       <c r="T41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
@@ -2987,16 +3224,19 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
         <v>109</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>222</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>52</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" ref="G42:G47" si="5">VLOOKUP(F42,T:T,1,0)</f>
+      <c r="H42" t="str">
+        <f>VLOOKUP(G42,T:T,1,0)</f>
         <v>LUGO</v>
       </c>
       <c r="J42" t="s">
@@ -3009,11 +3249,11 @@
         <v>141</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="T42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
@@ -3027,16 +3267,19 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
         <v>110</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>223</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>53</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="5"/>
+      <c r="H43" t="str">
+        <f>VLOOKUP(G43,T:T,1,0)</f>
         <v>OURENSE</v>
       </c>
       <c r="J43" t="s">
@@ -3049,11 +3292,11 @@
         <v>125</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>PO</v>
       </c>
       <c r="T43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
@@ -3067,16 +3310,19 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
         <v>111</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>224</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>54</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="5"/>
+      <c r="H44" t="str">
+        <f>VLOOKUP(G44,T:T,1,0)</f>
         <v>PONTEVEDRA</v>
       </c>
       <c r="J44" t="s">
@@ -3089,11 +3335,11 @@
         <v>141</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>SA</v>
       </c>
       <c r="T44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
@@ -3107,17 +3353,20 @@
         <v>55</v>
       </c>
       <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
         <v>112</v>
       </c>
-      <c r="E45" t="str">
-        <f>VLOOKUP(F45,K:M,3,0)</f>
+      <c r="F45" t="str">
+        <f>VLOOKUP(G45,K:M,3,0)</f>
         <v>M</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>56</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="5"/>
+      <c r="H45" t="str">
+        <f>VLOOKUP(G45,T:T,1,0)</f>
         <v>MADRID</v>
       </c>
       <c r="J45" t="s">
@@ -3130,11 +3379,11 @@
         <v>178</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>TF</v>
       </c>
       <c r="T45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
@@ -3148,17 +3397,20 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
         <v>113</v>
       </c>
-      <c r="E46" t="str">
-        <f>VLOOKUP(F46,K:M,3,0)</f>
+      <c r="F46" t="str">
+        <f>VLOOKUP(G46,K:M,3,0)</f>
         <v>MU</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>58</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="5"/>
+      <c r="H46" t="str">
+        <f>VLOOKUP(G46,T:T,1,0)</f>
         <v>MURCIA</v>
       </c>
       <c r="J46" t="s">
@@ -3171,11 +3423,11 @@
         <v>141</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>SG</v>
       </c>
       <c r="T46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
@@ -3189,17 +3441,20 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
         <v>114</v>
       </c>
-      <c r="E47" t="str">
-        <f>VLOOKUP(F47,K:M,3,0)</f>
+      <c r="F47" t="str">
+        <f>VLOOKUP(G47,K:M,3,0)</f>
         <v>NA</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>60</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="5"/>
+      <c r="H47" t="str">
+        <f>VLOOKUP(G47,T:T,1,0)</f>
         <v>NAVARRA</v>
       </c>
       <c r="J47" t="s">
@@ -3212,11 +3467,11 @@
         <v>137</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>SE</v>
       </c>
       <c r="T47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
@@ -3230,16 +3485,19 @@
         <v>61</v>
       </c>
       <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
         <v>76</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>225</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>62</v>
       </c>
-      <c r="G48" t="s">
-        <v>276</v>
+      <c r="H48" t="s">
+        <v>275</v>
       </c>
       <c r="J48" t="s">
         <v>201</v>
@@ -3251,11 +3509,11 @@
         <v>141</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>SO</v>
       </c>
       <c r="T48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
@@ -3269,16 +3527,19 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
         <v>115</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>226</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>63</v>
       </c>
-      <c r="G49" t="str">
-        <f>VLOOKUP(F49,T:T,1,0)</f>
+      <c r="H49" t="str">
+        <f>VLOOKUP(G49,T:T,1,0)</f>
         <v>BIZKAIA</v>
       </c>
       <c r="J49" t="s">
@@ -3291,11 +3552,11 @@
         <v>146</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>T</v>
       </c>
       <c r="T49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
@@ -3309,16 +3570,19 @@
         <v>61</v>
       </c>
       <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
         <v>116</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>227</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>64</v>
       </c>
-      <c r="G50" t="str">
-        <f>VLOOKUP(F50,T:T,1,0)</f>
+      <c r="H50" t="str">
+        <f>VLOOKUP(G50,T:T,1,0)</f>
         <v>GIPUZKOA</v>
       </c>
       <c r="J50" t="s">
@@ -3331,11 +3595,11 @@
         <v>168</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>TE</v>
       </c>
       <c r="T50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
@@ -3349,16 +3613,19 @@
         <v>65</v>
       </c>
       <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" t="s">
         <v>117</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>228</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>65</v>
       </c>
-      <c r="G51" t="s">
-        <v>285</v>
+      <c r="H51" t="s">
+        <v>284</v>
       </c>
       <c r="J51" t="s">
         <v>205</v>
@@ -3370,11 +3637,11 @@
         <v>131</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>TO</v>
       </c>
       <c r="T51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
@@ -3388,16 +3655,19 @@
         <v>66</v>
       </c>
       <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>66</v>
       </c>
-      <c r="G52" t="str">
-        <f>VLOOKUP(F52,T:T,1,0)</f>
+      <c r="H52" t="str">
+        <f>VLOOKUP(G52,T:T,1,0)</f>
         <v>CEUTA</v>
       </c>
       <c r="J52" t="s">
@@ -3410,11 +3680,11 @@
         <v>135</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>V</v>
       </c>
       <c r="T52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
@@ -3428,27 +3698,30 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
         <v>119</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>229</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>67</v>
       </c>
-      <c r="G53" t="str">
-        <f>VLOOKUP(F53,T:T,1,0)</f>
+      <c r="H53" t="str">
+        <f>VLOOKUP(G53,T:T,1,0)</f>
         <v>MELILLA</v>
       </c>
       <c r="K53" t="s">
         <v>208</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
@@ -3461,17 +3734,20 @@
       <c r="C54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G54" t="s">
-        <v>286</v>
+      <c r="G54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H54" t="s">
+        <v>285</v>
       </c>
       <c r="J54" t="s">
         <v>209</v>
@@ -3483,7 +3759,7 @@
         <v>141</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>VA</v>
       </c>
     </row>
@@ -3497,17 +3773,20 @@
       <c r="C55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G55" t="s">
-        <v>287</v>
+      <c r="G55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" t="s">
+        <v>286</v>
       </c>
       <c r="J55" t="s">
         <v>210</v>
@@ -3519,7 +3798,7 @@
         <v>141</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>ZA</v>
       </c>
     </row>
@@ -3534,13 +3813,13 @@
         <v>168</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>Z</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T2:T53">
-    <sortCondition ref="T53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V2:V24">
+    <sortCondition ref="V2:V24"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" tooltip="Province of A Coruña" display="https://en.wikipedia.org/wiki/Province_of_A_Coru%C3%B1a" xr:uid="{4A0CF3F2-8F38-431D-BFA3-08EC922A2B3E}"/>
@@ -3643,12 +3922,13 @@
     <hyperlink ref="L55" r:id="rId98" tooltip="Castile and León" display="https://en.wikipedia.org/wiki/Castile_and_Le%C3%B3n" xr:uid="{2B3E0021-724E-4F10-ADE6-0D02535ED7BA}"/>
     <hyperlink ref="K56" r:id="rId99" tooltip="Province of Zaragoza" display="https://en.wikipedia.org/wiki/Province_of_Zaragoza" xr:uid="{005CD707-D488-41A0-9C4B-A2B3A9513F6A}"/>
     <hyperlink ref="L56" r:id="rId100" tooltip="Aragon" display="https://en.wikipedia.org/wiki/Aragon" xr:uid="{2A287B3B-7842-4D79-BE44-B2C40766DA11}"/>
-    <hyperlink ref="F54" r:id="rId101" tooltip="Province of Navarra" display="https://en.wikipedia.org/wiki/Province_of_Navarra" xr:uid="{B213D815-89EB-49F1-AC53-950653C8928C}"/>
-    <hyperlink ref="E54" r:id="rId102" tooltip="Navarre" display="https://en.wikipedia.org/wiki/Navarre" xr:uid="{5F7A8FC5-5779-4464-BADD-A39F4B9AFDAD}"/>
-    <hyperlink ref="E55" r:id="rId103" tooltip="Castile and León" display="https://en.wikipedia.org/wiki/Castile_and_Le%C3%B3n" xr:uid="{50EA3AAB-6BF7-49C7-A290-7AF4CC3439FC}"/>
+    <hyperlink ref="G54" r:id="rId101" tooltip="Province of Navarra" display="https://en.wikipedia.org/wiki/Province_of_Navarra" xr:uid="{B213D815-89EB-49F1-AC53-950653C8928C}"/>
+    <hyperlink ref="F54" r:id="rId102" tooltip="Navarre" display="https://en.wikipedia.org/wiki/Navarre" xr:uid="{5F7A8FC5-5779-4464-BADD-A39F4B9AFDAD}"/>
+    <hyperlink ref="F55" r:id="rId103" tooltip="Castile and León" display="https://en.wikipedia.org/wiki/Castile_and_Le%C3%B3n" xr:uid="{50EA3AAB-6BF7-49C7-A290-7AF4CC3439FC}"/>
     <hyperlink ref="O1" r:id="rId104" xr:uid="{D6C97D43-2824-401A-9E93-196334A89F6F}"/>
+    <hyperlink ref="D54" r:id="rId105" tooltip="Province of Navarra" display="https://en.wikipedia.org/wiki/Province_of_Navarra" xr:uid="{076F4629-FD7A-439F-B2A3-925DB379BF93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId105"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId106"/>
 </worksheet>
 </file>
--- a/data/Relación de provincias por comunidades autónomas y sus códigos.xlsx
+++ b/data/Relación de provincias por comunidades autónomas y sus códigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd674cd528b8fcfe/GMBD/PROJECT III REAL WORLD DATATHON (MBD-EN-BL2020J-1_32R211_387066)/gmbd_datathon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{A94A60FE-291C-4EA2-A801-2459AE9B0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F11787-0E95-455A-870C-08174C3159C5}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{A94A60FE-291C-4EA2-A801-2459AE9B0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212D5259-0774-4D83-8819-5172B0561659}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23620" xr2:uid="{B0C83BCF-32E6-4B2E-8607-3876E09DC576}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="359">
   <si>
     <t>Comunidad Autónoma</t>
   </si>
@@ -949,6 +949,168 @@
   </si>
   <si>
     <t>Comunidad Autónoma mscbs</t>
+  </si>
+  <si>
+    <t>15 Coruña, A                 927</t>
+  </si>
+  <si>
+    <t>28 Madrid                    927</t>
+  </si>
+  <si>
+    <t>31 Navarra                   927</t>
+  </si>
+  <si>
+    <t>27 Lugo                      927</t>
+  </si>
+  <si>
+    <t>44 Teruel                    927</t>
+  </si>
+  <si>
+    <t>36 Pontevedra                927</t>
+  </si>
+  <si>
+    <t>16 Cuenca                    927</t>
+  </si>
+  <si>
+    <t>52 Melilla                   927</t>
+  </si>
+  <si>
+    <t>05 Ávila                     927</t>
+  </si>
+  <si>
+    <t>48 Bizkaia                   927</t>
+  </si>
+  <si>
+    <t>09 Burgos                    927</t>
+  </si>
+  <si>
+    <t>18 Granada                   927</t>
+  </si>
+  <si>
+    <t>03 Alicante/Alacant          927</t>
+  </si>
+  <si>
+    <t>45 Toledo                    927</t>
+  </si>
+  <si>
+    <t>14 Córdoba                   927</t>
+  </si>
+  <si>
+    <t>12 Castellón/Castelló        927</t>
+  </si>
+  <si>
+    <t>11 Cádiz                     927</t>
+  </si>
+  <si>
+    <t>21 Huelva                    927</t>
+  </si>
+  <si>
+    <t>51 Ceuta                     927</t>
+  </si>
+  <si>
+    <t>42 Soria                     927</t>
+  </si>
+  <si>
+    <t>25 Lleida                    927</t>
+  </si>
+  <si>
+    <t>49 Zamora                    927</t>
+  </si>
+  <si>
+    <t>06 Badajoz                   927</t>
+  </si>
+  <si>
+    <t>37 Salamanca                 927</t>
+  </si>
+  <si>
+    <t>30 Murcia                    927</t>
+  </si>
+  <si>
+    <t>41 Sevilla                   927</t>
+  </si>
+  <si>
+    <t>10 Cáceres                   927</t>
+  </si>
+  <si>
+    <t>32 Ourense                   927</t>
+  </si>
+  <si>
+    <t>40 Segovia                   927</t>
+  </si>
+  <si>
+    <t>13 Ciudad Real               927</t>
+  </si>
+  <si>
+    <t>Total Nacional               927</t>
+  </si>
+  <si>
+    <t>43 Tarragona                 927</t>
+  </si>
+  <si>
+    <t>39 Cantabria                 927</t>
+  </si>
+  <si>
+    <t>35 Palmas, Las               927</t>
+  </si>
+  <si>
+    <t>38 Santa Cruz de Tenerife    927</t>
+  </si>
+  <si>
+    <t>24 León                      927</t>
+  </si>
+  <si>
+    <t>17 Girona                    927</t>
+  </si>
+  <si>
+    <t>29 Málaga                    927</t>
+  </si>
+  <si>
+    <t>20 Gipuzkoa                  927</t>
+  </si>
+  <si>
+    <t>08 Barcelona                 927</t>
+  </si>
+  <si>
+    <t>22 Huesca                    927</t>
+  </si>
+  <si>
+    <t>50 Zaragoza                  927</t>
+  </si>
+  <si>
+    <t>04 Almería                   927</t>
+  </si>
+  <si>
+    <t>19 Guadalajara               927</t>
+  </si>
+  <si>
+    <t>33 Asturias                  927</t>
+  </si>
+  <si>
+    <t>46 Valencia/València         927</t>
+  </si>
+  <si>
+    <t>23 Jaén                      927</t>
+  </si>
+  <si>
+    <t>47 Valladolid                927</t>
+  </si>
+  <si>
+    <t>01 Araba/Álava               927</t>
+  </si>
+  <si>
+    <t>07 Balears, Illes            927</t>
+  </si>
+  <si>
+    <t>34 Palencia                  927</t>
+  </si>
+  <si>
+    <t>02 Albacete                  927</t>
+  </si>
+  <si>
+    <t>26 Rioja, La                 927</t>
+  </si>
+  <si>
+    <t>Censo</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062B352E-817A-4947-B62C-502DAD476A13}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,7 +1551,7 @@
     <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>291</v>
       </c>
@@ -1432,8 +1594,11 @@
       <c r="V1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1450,7 +1615,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(G2,K:M,3,0)</f>
+        <f t="shared" ref="F2:F13" si="0">VLOOKUP(G2,K:M,3,0)</f>
         <v>AL</v>
       </c>
       <c r="G2" t="s">
@@ -1469,7 +1634,7 @@
         <v>125</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M33" si="0">MID(J2,4,99999)</f>
+        <f t="shared" ref="M2:M33" si="1">MID(J2,4,99999)</f>
         <v>C</v>
       </c>
       <c r="T2" t="s">
@@ -1478,8 +1643,23 @@
       <c r="V2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>MID(Y2,1,2)</f>
+        <v>15</v>
+      </c>
+      <c r="AC2">
+        <f>MATCH(AB2,E:E,0)</f>
+        <v>41</v>
+      </c>
+      <c r="AD2">
+        <f>COUNTIF(AB:AB,AB2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1496,7 +1676,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(G3,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>CA</v>
       </c>
       <c r="G3" t="s">
@@ -1515,7 +1695,7 @@
         <v>129</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>VI</v>
       </c>
       <c r="T3" t="s">
@@ -1524,8 +1704,23 @@
       <c r="V3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB54" si="2">MID(Y3,1,2)</f>
+        <v>28</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC54" si="3">MATCH(AB3,E:E,0)</f>
+        <v>45</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD54" si="4">COUNTIF(AB:AB,AB3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1542,7 +1737,7 @@
         <v>78</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(G4,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>CO</v>
       </c>
       <c r="G4" t="s">
@@ -1555,7 +1750,7 @@
         <v>128</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T4" t="s">
@@ -1564,8 +1759,23 @@
       <c r="V4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1582,7 +1792,7 @@
         <v>79</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(G5,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>GR</v>
       </c>
       <c r="G5" t="s">
@@ -1602,7 +1812,7 @@
         <v>131</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AB</v>
       </c>
       <c r="T5" t="s">
@@ -1611,8 +1821,23 @@
       <c r="V5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1629,7 +1854,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(G6,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>H</v>
       </c>
       <c r="G6" t="s">
@@ -1649,7 +1874,7 @@
         <v>135</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="T6" t="s">
@@ -1658,8 +1883,23 @@
       <c r="V6" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1676,7 +1916,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(G7,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>J</v>
       </c>
       <c r="G7" t="s">
@@ -1689,7 +1929,7 @@
         <v>134</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T7" t="s">
@@ -1698,8 +1938,23 @@
       <c r="V7" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1716,7 +1971,7 @@
         <v>82</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(G8,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>MA</v>
       </c>
       <c r="G8" t="s">
@@ -1735,7 +1990,7 @@
         <v>137</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AL</v>
       </c>
       <c r="T8" t="s">
@@ -1744,8 +1999,23 @@
       <c r="V8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1762,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(G9,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>SE</v>
       </c>
       <c r="G9" t="s">
@@ -1782,7 +2052,7 @@
         <v>139</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="T9" t="s">
@@ -1791,8 +2061,23 @@
       <c r="V9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1809,7 +2094,7 @@
         <v>84</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(G10,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>HU</v>
       </c>
       <c r="G10" t="s">
@@ -1829,7 +2114,7 @@
         <v>141</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AV</v>
       </c>
       <c r="T10" t="s">
@@ -1838,8 +2123,23 @@
       <c r="V10" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y10" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1856,7 +2156,7 @@
         <v>85</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(G11,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>TE</v>
       </c>
       <c r="G11" t="s">
@@ -1876,7 +2176,7 @@
         <v>143</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BA</v>
       </c>
       <c r="T11" t="s">
@@ -1885,8 +2185,23 @@
       <c r="V11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1903,7 +2218,7 @@
         <v>86</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(G12,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>Z</v>
       </c>
       <c r="G12" t="s">
@@ -1923,7 +2238,7 @@
         <v>146</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="T12" t="s">
@@ -1932,8 +2247,23 @@
       <c r="V12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="2"/>
+        <v>09</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -1950,7 +2280,7 @@
         <v>87</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(G13,K:M,3,0)</f>
+        <f t="shared" si="0"/>
         <v>O</v>
       </c>
       <c r="G13" t="s">
@@ -1970,7 +2300,7 @@
         <v>129</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BI</v>
       </c>
       <c r="T13" t="s">
@@ -1979,8 +2309,23 @@
       <c r="V13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2015,7 +2360,7 @@
         <v>141</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BU</v>
       </c>
       <c r="T14" t="s">
@@ -2024,8 +2369,23 @@
       <c r="V14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y14" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="2"/>
+        <v>03</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2420,7 @@
         <v>143</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC</v>
       </c>
       <c r="T15" t="s">
@@ -2069,8 +2429,23 @@
       <c r="V15" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2087,7 +2462,7 @@
         <v>89</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(G16,K:M,3,0)</f>
+        <f t="shared" ref="F16:F31" si="5">VLOOKUP(G16,K:M,3,0)</f>
         <v>TF</v>
       </c>
       <c r="G16" t="s">
@@ -2106,7 +2481,7 @@
         <v>137</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CA</v>
       </c>
       <c r="T16" t="s">
@@ -2115,8 +2490,23 @@
       <c r="V16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2133,7 +2523,7 @@
         <v>90</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(G17,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="G17" t="s">
@@ -2153,7 +2543,7 @@
         <v>153</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
       <c r="T17" t="s">
@@ -2162,8 +2552,23 @@
       <c r="V17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y17" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2180,7 +2585,7 @@
         <v>70</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(G18,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>AV</v>
       </c>
       <c r="G18" t="s">
@@ -2199,7 +2604,7 @@
         <v>135</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CS</v>
       </c>
       <c r="T18" t="s">
@@ -2208,8 +2613,23 @@
       <c r="V18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y18" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2226,7 +2646,7 @@
         <v>71</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(G19,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>BU</v>
       </c>
       <c r="G19" t="s">
@@ -2240,7 +2660,7 @@
         <v>156</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T19" t="s">
@@ -2249,8 +2669,23 @@
       <c r="V19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2267,7 +2702,7 @@
         <v>91</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(G20,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>LE</v>
       </c>
       <c r="G20" t="s">
@@ -2286,7 +2721,7 @@
         <v>131</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CR</v>
       </c>
       <c r="T20" t="s">
@@ -2295,8 +2730,23 @@
       <c r="V20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y20" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2313,14 +2763,14 @@
         <v>92</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(G21,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>P</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
       <c r="H21" t="str">
-        <f>VLOOKUP(G21,T:T,1,0)</f>
+        <f t="shared" ref="H21:H35" si="6">VLOOKUP(G21,T:T,1,0)</f>
         <v>PALENCIA</v>
       </c>
       <c r="J21" t="s">
@@ -2333,7 +2783,7 @@
         <v>137</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CO</v>
       </c>
       <c r="T21" t="s">
@@ -2342,8 +2792,23 @@
       <c r="V21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y21" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2360,14 +2825,14 @@
         <v>93</v>
       </c>
       <c r="F22" t="str">
-        <f>VLOOKUP(G22,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>SA</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="H22" t="str">
-        <f>VLOOKUP(G22,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>SALAMANCA</v>
       </c>
       <c r="J22" t="s">
@@ -2380,7 +2845,7 @@
         <v>131</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CU</v>
       </c>
       <c r="T22" t="s">
@@ -2389,8 +2854,23 @@
       <c r="V22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y22" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -2407,14 +2887,14 @@
         <v>94</v>
       </c>
       <c r="F23" t="str">
-        <f>VLOOKUP(G23,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
       </c>
       <c r="H23" t="str">
-        <f>VLOOKUP(G23,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>SEGOVIA</v>
       </c>
       <c r="J23" t="s">
@@ -2427,7 +2907,7 @@
         <v>129</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SS</v>
       </c>
       <c r="T23" t="s">
@@ -2436,8 +2916,23 @@
       <c r="V23" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y23" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2454,14 +2949,14 @@
         <v>95</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(G24,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>SO</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="str">
-        <f>VLOOKUP(G24,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>SORIA</v>
       </c>
       <c r="J24" t="s">
@@ -2474,7 +2969,7 @@
         <v>146</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GI</v>
       </c>
       <c r="T24" t="s">
@@ -2483,8 +2978,23 @@
       <c r="V24" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="2"/>
+        <v>06</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2501,14 +3011,14 @@
         <v>96</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(G25,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>VA</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(G25,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>VALLADOLID</v>
       </c>
       <c r="J25" t="s">
@@ -2521,14 +3031,29 @@
         <v>137</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GR</v>
       </c>
       <c r="T25" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2545,14 +3070,14 @@
         <v>97</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(G26,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>ZA</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(G26,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>ZAMORA</v>
       </c>
       <c r="J26" t="s">
@@ -2565,14 +3090,29 @@
         <v>131</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GU</v>
       </c>
       <c r="T26" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y26" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2589,14 +3129,14 @@
         <v>72</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(G27,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>AB</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27" t="str">
-        <f>VLOOKUP(G27,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>ALBACETE</v>
       </c>
       <c r="J27" t="s">
@@ -2609,14 +3149,29 @@
         <v>137</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H</v>
       </c>
       <c r="T27" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y27" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2633,14 +3188,14 @@
         <v>98</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(G28,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>CR</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(G28,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>CIUDAD REAL</v>
       </c>
       <c r="J28" t="s">
@@ -2653,14 +3208,29 @@
         <v>168</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HU</v>
       </c>
       <c r="T28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y28" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2677,14 +3247,14 @@
         <v>99</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(G29,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>CU</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
       </c>
       <c r="H29" t="str">
-        <f>VLOOKUP(G29,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>CUENCA</v>
       </c>
       <c r="J29" t="s">
@@ -2697,14 +3267,29 @@
         <v>171</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PM</v>
       </c>
       <c r="T29" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y29" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2721,14 +3306,14 @@
         <v>100</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(G30,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>GU</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
       </c>
       <c r="H30" t="str">
-        <f>VLOOKUP(G30,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>GUADALAJARA</v>
       </c>
       <c r="J30" t="s">
@@ -2741,14 +3326,29 @@
         <v>137</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>J</v>
       </c>
       <c r="T30" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y30" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2765,14 +3365,14 @@
         <v>101</v>
       </c>
       <c r="F31" t="str">
-        <f>VLOOKUP(G31,K:M,3,0)</f>
+        <f t="shared" si="5"/>
         <v>TO</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(G31,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>TOLEDO</v>
       </c>
       <c r="J31" t="s">
@@ -2785,14 +3385,29 @@
         <v>175</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LO</v>
       </c>
       <c r="T31" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Y31" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2815,7 +3430,7 @@
         <v>39</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(G32,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>BARCELONA</v>
       </c>
       <c r="J32" t="s">
@@ -2828,14 +3443,29 @@
         <v>178</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GC</v>
       </c>
       <c r="T32" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="2"/>
+        <v>To</v>
+      </c>
+      <c r="AC32" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2858,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(G33,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>GIRONA</v>
       </c>
       <c r="J33" t="s">
@@ -2871,14 +3501,29 @@
         <v>141</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LE</v>
       </c>
       <c r="T33" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2901,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(G34,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>LLEIDA</v>
       </c>
       <c r="J34" t="s">
@@ -2914,14 +3559,29 @@
         <v>146</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f t="shared" ref="M34:M56" si="1">MID(J34,4,99999)</f>
+        <f t="shared" ref="M34:M56" si="7">MID(J34,4,99999)</f>
         <v>L</v>
       </c>
       <c r="T34" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2944,7 +3604,7 @@
         <v>42</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(G35,T:T,1,0)</f>
+        <f t="shared" si="6"/>
         <v>TARRAGONA</v>
       </c>
       <c r="J35" t="s">
@@ -2957,14 +3617,29 @@
         <v>125</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>LU</v>
       </c>
       <c r="T35" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y35" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -2999,14 +3674,29 @@
         <v>185</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>M</v>
       </c>
       <c r="T36" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -3041,14 +3731,29 @@
         <v>137</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>MA</v>
       </c>
       <c r="T37" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -3083,14 +3788,29 @@
         <v>188</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>MU</v>
       </c>
       <c r="T38" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -3127,14 +3847,29 @@
         <v>191</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="T39" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -3164,14 +3899,29 @@
         <v>190</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T40" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y40" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -3206,14 +3956,29 @@
         <v>125</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>OR</v>
       </c>
       <c r="T41" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="2"/>
+        <v>08</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -3236,7 +4001,7 @@
         <v>52</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(G42,T:T,1,0)</f>
+        <f t="shared" ref="H42:H47" si="8">VLOOKUP(G42,T:T,1,0)</f>
         <v>LUGO</v>
       </c>
       <c r="J42" t="s">
@@ -3249,14 +4014,29 @@
         <v>141</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>P</v>
       </c>
       <c r="T42" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y42" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -3279,7 +4059,7 @@
         <v>53</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(G43,T:T,1,0)</f>
+        <f t="shared" si="8"/>
         <v>OURENSE</v>
       </c>
       <c r="J43" t="s">
@@ -3292,14 +4072,29 @@
         <v>125</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>PO</v>
       </c>
       <c r="T43" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -3322,7 +4117,7 @@
         <v>54</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(G44,T:T,1,0)</f>
+        <f t="shared" si="8"/>
         <v>PONTEVEDRA</v>
       </c>
       <c r="J44" t="s">
@@ -3335,14 +4130,29 @@
         <v>141</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>SA</v>
       </c>
       <c r="T44" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y44" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -3366,7 +4176,7 @@
         <v>56</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(G45,T:T,1,0)</f>
+        <f t="shared" si="8"/>
         <v>MADRID</v>
       </c>
       <c r="J45" t="s">
@@ -3379,14 +4189,29 @@
         <v>178</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>TF</v>
       </c>
       <c r="T45" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y45" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -3410,7 +4235,7 @@
         <v>58</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(G46,T:T,1,0)</f>
+        <f t="shared" si="8"/>
         <v>MURCIA</v>
       </c>
       <c r="J46" t="s">
@@ -3423,14 +4248,29 @@
         <v>141</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>SG</v>
       </c>
       <c r="T46" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3454,7 +4294,7 @@
         <v>60</v>
       </c>
       <c r="H47" t="str">
-        <f>VLOOKUP(G47,T:T,1,0)</f>
+        <f t="shared" si="8"/>
         <v>NAVARRA</v>
       </c>
       <c r="J47" t="s">
@@ -3467,14 +4307,29 @@
         <v>137</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>SE</v>
       </c>
       <c r="T47" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y47" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -3509,14 +4364,29 @@
         <v>141</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>SO</v>
       </c>
       <c r="T48" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y48" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -3552,14 +4422,29 @@
         <v>146</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T</v>
       </c>
       <c r="T49" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -3595,14 +4480,29 @@
         <v>168</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>TE</v>
       </c>
       <c r="T50" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -3637,14 +4537,29 @@
         <v>131</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>TO</v>
       </c>
       <c r="T51" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y51" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" si="2"/>
+        <v>07</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3680,14 +4595,29 @@
         <v>135</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>V</v>
       </c>
       <c r="T52" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y52" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -3717,14 +4647,29 @@
         <v>208</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T53" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y53" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>108</v>
       </c>
@@ -3759,11 +4704,26 @@
         <v>141</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>VA</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Y54" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB54" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>69</v>
       </c>
@@ -3798,11 +4758,11 @@
         <v>141</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>ZA</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J56" t="s">
         <v>211</v>
       </c>
@@ -3813,7 +4773,7 @@
         <v>168</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>Z</v>
       </c>
     </row>
@@ -3821,6 +4781,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V2:V24">
     <sortCondition ref="V2:V24"/>
   </sortState>
+  <conditionalFormatting sqref="AD2:AD54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" tooltip="Province of A Coruña" display="https://en.wikipedia.org/wiki/Province_of_A_Coru%C3%B1a" xr:uid="{4A0CF3F2-8F38-431D-BFA3-08EC922A2B3E}"/>
     <hyperlink ref="L2" r:id="rId2" tooltip="Galicia (Spain)" display="https://en.wikipedia.org/wiki/Galicia_(Spain)" xr:uid="{B56CA5D4-C4B1-4301-AD0E-4ED5EC2BD98D}"/>

--- a/data/Relación de provincias por comunidades autónomas y sus códigos.xlsx
+++ b/data/Relación de provincias por comunidades autónomas y sus códigos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd674cd528b8fcfe/GMBD/PROJECT III REAL WORLD DATATHON (MBD-EN-BL2020J-1_32R211_387066)/gmbd_datathon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{A94A60FE-291C-4EA2-A801-2459AE9B0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212D5259-0774-4D83-8819-5172B0561659}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{A94A60FE-291C-4EA2-A801-2459AE9B0461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{903D6308-B70F-4EED-9E70-60A565575877}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="23620" xr2:uid="{B0C83BCF-32E6-4B2E-8607-3876E09DC576}"/>
   </bookViews>
@@ -1536,14 +1536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062B352E-817A-4947-B62C-502DAD476A13}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B2:B55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.453125" bestFit="1" customWidth="1"/>
